--- a/EMG_CRP.xlsx
+++ b/EMG_CRP.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgom3\OneDrive\Documents\Ergonomics Lab (PERROS 69)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4CE968-F9CE-48CD-8F12-FA48A60A7EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85884BAB-43F6-4A48-953C-AD4BC563FAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FEEBD5DE-178A-4201-BEC1-EE798BCC804B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FEEBD5DE-178A-4201-BEC1-EE798BCC804B}"/>
   </bookViews>
   <sheets>
-    <sheet name="CRP" sheetId="1" r:id="rId1"/>
-    <sheet name="EMG" sheetId="2" r:id="rId2"/>
+    <sheet name="CRP_master" sheetId="4" r:id="rId1"/>
+    <sheet name="CRP" sheetId="1" r:id="rId2"/>
+    <sheet name="EMG" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="14">
   <si>
     <t>Subject</t>
   </si>
@@ -438,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0378DB36-7401-4E54-A527-A12448293E0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF182A2D-1490-42F7-B2F7-1994DF9FE822}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,18 +1067,754 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0378DB36-7401-4E54-A527-A12448293E0B}">
+  <dimension ref="A1:C65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.52447325028890257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0.58223612856423967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.29964224275226192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2.3077058519788576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4.1126679561086226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1.3625204414017438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.66331340709928932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0.32663641415371009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2.3429959451645961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2.8959239105695382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1.2979426455952168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2.7366380317006405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3.0942738399246563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1.0171358897774729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>0.5032274892625257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.10935881753496032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>2.896957456970453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2.8096396332165989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>0.35354935733050569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>0.46819034123182096</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>2.7059816227608646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>4.4483558456236967</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0.36533768056811261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>1.4731895088837459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1.7173926026832202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>2.5134534878272499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>3.6782919942513246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>8.5913409178723317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>2.4757455389996568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>19.629070549517554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BC127F-A0F0-47C8-AECB-582A14968694}">
   <dimension ref="A1:E317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6482,6 +7219,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6490,7 +7233,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEDD851F6EA9C54EAB0791480938226D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="147f25c22f2f8420278949c68c3b7c6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09879452-7465-4b11-8589-df1de3fa0d05" xmlns:ns3="8ce1275d-ca97-4eed-8fc6-41c813fa01ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bedee69bc100f21777a687d53842496f" ns2:_="" ns3:_="">
     <xsd:import namespace="09879452-7465-4b11-8589-df1de3fa0d05"/>
@@ -6655,13 +7398,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D36FF8-E9E9-48C6-99D5-1CACCF2FE608}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{238F547E-3DCF-4A48-8F02-13A346B12542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6669,7 +7415,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D73A617-ED0C-4F9E-86BC-DA39CBDE5FBD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6686,13 +7432,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11D36FF8-E9E9-48C6-99D5-1CACCF2FE608}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>